--- a/data/indexDataWeekly.xlsx
+++ b/data/indexDataWeekly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>-0.0122302</v>
+        <v>-0.0212662</v>
       </c>
       <c r="D275" t="n">
-        <v>-425</v>
+        <v>-739</v>
       </c>
       <c r="E275" t="n">
-        <v>34325</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="276">
@@ -5667,17 +5667,55 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0007141</v>
+        <v>-0.0072624</v>
       </c>
       <c r="D276" t="n">
-        <v>24.51171875</v>
+        <v>-247</v>
       </c>
       <c r="E276" t="n">
-        <v>34349.51171875</v>
+        <v>33764</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.0056273</v>
+      </c>
+      <c r="D277" t="n">
+        <v>190</v>
+      </c>
+      <c r="E277" t="n">
+        <v>33954</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>-0.0180727</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-613.640625</v>
+      </c>
+      <c r="E278" t="n">
+        <v>33340.359375</v>
       </c>
     </row>
   </sheetData>
